--- a/inst/extdata/RP_pos_sample.xlsx
+++ b/inst/extdata/RP_pos_sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\amp\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD6E748-32D9-44D3-8EDD-397340F8FE9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26E3FB6-56AA-44B0-8BAB-F9698EF1996D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1164" yWindow="4272" windowWidth="20244" windowHeight="15984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="312">
   <si>
     <t>Class</t>
   </si>
@@ -40,9 +40,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>HE-HA</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -764,12 +761,6 @@
   </si>
   <si>
     <t>180226SR_Valio_RP_pos_221</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_222</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_223</t>
   </si>
   <si>
     <t>180226SR_Valio_RP_pos_224</t>
@@ -1806,15 +1797,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IJ2305"/>
+  <dimension ref="A1:IH2305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="HQ1" workbookViewId="0">
+      <selection activeCell="IE1" sqref="IE1:IF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U1" t="s">
         <v>0</v>
       </c>
@@ -2470,10 +2461,10 @@
         <v>5</v>
       </c>
       <c r="IE1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="IF1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="IG1" t="s">
         <v>1</v>
@@ -2481,673 +2472,667 @@
       <c r="IH1" t="s">
         <v>1</v>
       </c>
-      <c r="II1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IJ1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="s">
         <v>1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="s">
         <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI2" t="s">
         <v>1</v>
       </c>
       <c r="BJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV2" t="s">
         <v>1</v>
       </c>
       <c r="BW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CI2" t="s">
         <v>1</v>
       </c>
       <c r="CJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV2" t="s">
         <v>1</v>
       </c>
       <c r="CW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DI2" t="s">
         <v>1</v>
       </c>
       <c r="DJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DV2" t="s">
         <v>1</v>
       </c>
       <c r="DW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ED2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EI2" t="s">
         <v>1</v>
       </c>
       <c r="EJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ER2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ES2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ET2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EV2" t="s">
         <v>1</v>
       </c>
       <c r="EW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FI2" t="s">
         <v>1</v>
       </c>
       <c r="FJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FV2" t="s">
         <v>1</v>
       </c>
       <c r="FW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GI2" t="s">
         <v>1</v>
       </c>
       <c r="GJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GV2" t="s">
         <v>1</v>
       </c>
       <c r="GW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HI2" t="s">
         <v>1</v>
       </c>
       <c r="HJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HV2" t="s">
         <v>1</v>
       </c>
       <c r="HW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ID2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IE2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="IF2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="IG2" t="s">
         <v>1</v>
@@ -3155,16 +3140,10 @@
       <c r="IH2" t="s">
         <v>1</v>
       </c>
-      <c r="II2" t="s">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -3818,759 +3797,747 @@
         <v>217</v>
       </c>
       <c r="IE3">
+        <v>220</v>
+      </c>
+      <c r="IF3">
+        <v>221</v>
+      </c>
+      <c r="IG3">
+        <v>222</v>
+      </c>
+      <c r="IH3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:242" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>90</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>94</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>100</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>101</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>107</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>112</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>113</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>114</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>115</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>116</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>117</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>119</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>121</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>123</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>124</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>125</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>126</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>127</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>130</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>133</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>134</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>135</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>136</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>137</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>138</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>139</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>140</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>141</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>142</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>145</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>146</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>147</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>148</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>150</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>151</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>152</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>153</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>154</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>155</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>156</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>157</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>158</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>159</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>160</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>161</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>162</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>163</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>165</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>166</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>167</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>168</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>169</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>170</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>171</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>172</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>173</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>175</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>176</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>177</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>178</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>179</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>180</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>181</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>182</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>183</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>185</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>186</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>187</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>188</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>189</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>190</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>191</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>192</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>193</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>194</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>195</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>196</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>197</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>198</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>199</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>200</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>201</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>202</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>203</v>
+      </c>
+      <c r="GN4" t="s">
+        <v>204</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>205</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>206</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>207</v>
+      </c>
+      <c r="GR4" t="s">
+        <v>208</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>209</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>210</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>211</v>
+      </c>
+      <c r="GV4" t="s">
+        <v>212</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>213</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>214</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>215</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>216</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>217</v>
+      </c>
+      <c r="HB4" t="s">
         <v>218</v>
       </c>
-      <c r="IF3">
+      <c r="HC4" t="s">
         <v>219</v>
       </c>
-      <c r="IG3">
+      <c r="HD4" t="s">
         <v>220</v>
       </c>
-      <c r="IH3">
+      <c r="HE4" t="s">
         <v>221</v>
       </c>
-      <c r="II3">
+      <c r="HF4" t="s">
         <v>222</v>
       </c>
-      <c r="IJ3">
+      <c r="HG4" t="s">
         <v>223</v>
       </c>
+      <c r="HH4" t="s">
+        <v>224</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>225</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>226</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>227</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>228</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>229</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>230</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>231</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>232</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>233</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>234</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>235</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>236</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>237</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>238</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>239</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>240</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>241</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>242</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>243</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>244</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>245</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>246</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>247</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>248</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>249</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="4" spans="1:244" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>72</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>87</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>90</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>91</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>94</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>96</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>99</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>110</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>111</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>112</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>113</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>114</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>115</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>116</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>117</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>118</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>119</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>120</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>121</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>122</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>123</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>124</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>125</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>126</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>127</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>128</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>129</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>130</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>131</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>132</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>133</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>134</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>135</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>136</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>137</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>138</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>139</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>140</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>141</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>142</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>143</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>144</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>145</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>147</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>148</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>149</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>150</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>151</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>152</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>153</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>154</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>155</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>156</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>157</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>158</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>159</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>160</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>161</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>162</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>164</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>165</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>166</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>167</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>168</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>169</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>171</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>172</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>173</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>174</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>176</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>177</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>178</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>179</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>180</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>181</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>182</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>183</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>184</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>185</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>186</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>187</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>188</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>189</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>190</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>191</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>192</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>193</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>194</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>195</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>196</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>197</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>198</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>199</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>200</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>201</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>202</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>203</v>
-      </c>
-      <c r="GM4" t="s">
-        <v>204</v>
-      </c>
-      <c r="GN4" t="s">
-        <v>205</v>
-      </c>
-      <c r="GO4" t="s">
-        <v>206</v>
-      </c>
-      <c r="GP4" t="s">
-        <v>207</v>
-      </c>
-      <c r="GQ4" t="s">
-        <v>208</v>
-      </c>
-      <c r="GR4" t="s">
-        <v>209</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>210</v>
-      </c>
-      <c r="GT4" t="s">
-        <v>211</v>
-      </c>
-      <c r="GU4" t="s">
-        <v>212</v>
-      </c>
-      <c r="GV4" t="s">
-        <v>213</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>214</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>215</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>216</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>217</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>218</v>
-      </c>
-      <c r="HB4" t="s">
-        <v>219</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>220</v>
-      </c>
-      <c r="HD4" t="s">
-        <v>221</v>
-      </c>
-      <c r="HE4" t="s">
-        <v>222</v>
-      </c>
-      <c r="HF4" t="s">
-        <v>223</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>224</v>
-      </c>
-      <c r="HH4" t="s">
-        <v>225</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>226</v>
-      </c>
-      <c r="HJ4" t="s">
-        <v>227</v>
-      </c>
-      <c r="HK4" t="s">
-        <v>228</v>
-      </c>
-      <c r="HL4" t="s">
-        <v>229</v>
-      </c>
-      <c r="HM4" t="s">
-        <v>230</v>
-      </c>
-      <c r="HN4" t="s">
-        <v>231</v>
-      </c>
-      <c r="HO4" t="s">
-        <v>232</v>
-      </c>
-      <c r="HP4" t="s">
-        <v>233</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>234</v>
-      </c>
-      <c r="HR4" t="s">
-        <v>235</v>
-      </c>
-      <c r="HS4" t="s">
-        <v>236</v>
-      </c>
-      <c r="HT4" t="s">
-        <v>237</v>
-      </c>
-      <c r="HU4" t="s">
-        <v>238</v>
-      </c>
-      <c r="HV4" t="s">
-        <v>239</v>
-      </c>
-      <c r="HW4" t="s">
-        <v>240</v>
-      </c>
-      <c r="HX4" t="s">
-        <v>241</v>
-      </c>
-      <c r="HY4" t="s">
-        <v>242</v>
-      </c>
-      <c r="HZ4" t="s">
-        <v>243</v>
-      </c>
-      <c r="IA4" t="s">
-        <v>244</v>
-      </c>
-      <c r="IB4" t="s">
-        <v>245</v>
-      </c>
-      <c r="IC4" t="s">
-        <v>246</v>
-      </c>
-      <c r="ID4" t="s">
-        <v>247</v>
-      </c>
-      <c r="IE4" t="s">
-        <v>248</v>
-      </c>
-      <c r="IF4" t="s">
-        <v>249</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>250</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>251</v>
-      </c>
-      <c r="II4" t="s">
-        <v>252</v>
-      </c>
-      <c r="IJ4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4581,13 +4548,13 @@
         <v>55.017400000000002</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G5">
         <v>0.3811659</v>
@@ -4596,13 +4563,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -4620,10 +4587,10 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="V5">
         <v>21838.49</v>
@@ -5277,25 +5244,19 @@
         <v>94131.67</v>
       </c>
       <c r="IE5">
-        <v>109400.6</v>
+        <v>92974.01</v>
       </c>
       <c r="IF5">
-        <v>94075.72</v>
+        <v>51291.01</v>
       </c>
       <c r="IG5">
-        <v>92974.01</v>
+        <v>55491.7</v>
       </c>
       <c r="IH5">
-        <v>51291.01</v>
-      </c>
-      <c r="II5">
-        <v>55491.7</v>
-      </c>
-      <c r="IJ5">
         <v>69960.87</v>
       </c>
     </row>
-    <row r="6" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5306,10 +5267,10 @@
         <v>56.946100000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G6">
         <v>0.96412560000000003</v>
@@ -5318,16 +5279,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -5345,10 +5306,10 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="V6">
         <v>79784.62</v>
@@ -6002,25 +5963,19 @@
         <v>41207.61</v>
       </c>
       <c r="IE6">
-        <v>38848.81</v>
+        <v>35563.75</v>
       </c>
       <c r="IF6">
-        <v>46578.48</v>
+        <v>28305.58</v>
       </c>
       <c r="IG6">
-        <v>35563.75</v>
+        <v>23318.82</v>
       </c>
       <c r="IH6">
-        <v>28305.58</v>
-      </c>
-      <c r="II6">
-        <v>23318.82</v>
-      </c>
-      <c r="IJ6">
         <v>19786.599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6031,10 +5986,10 @@
         <v>57.07</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G7">
         <v>0.98654710000000001</v>
@@ -6043,16 +5998,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -6070,10 +6025,10 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V7">
         <v>57877.45</v>
@@ -6727,25 +6682,19 @@
         <v>2082.4540000000002</v>
       </c>
       <c r="IE7">
-        <v>9930.0759999999991</v>
+        <v>14885.03</v>
       </c>
       <c r="IF7">
-        <v>5309.652</v>
+        <v>7477.7269999999999</v>
       </c>
       <c r="IG7">
-        <v>14885.03</v>
+        <v>8615.1350000000002</v>
       </c>
       <c r="IH7">
-        <v>7477.7269999999999</v>
-      </c>
-      <c r="II7">
-        <v>8615.1350000000002</v>
-      </c>
-      <c r="IJ7">
         <v>7798.5360000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6756,13 +6705,13 @@
         <v>60.0807</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G8">
         <v>0.66367719999999997</v>
@@ -6771,16 +6720,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -6798,10 +6747,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V8">
         <v>25329.52</v>
@@ -7455,25 +7404,19 @@
         <v>31328.47</v>
       </c>
       <c r="IE8">
-        <v>33555.26</v>
+        <v>29709.71</v>
       </c>
       <c r="IF8">
-        <v>12372.82</v>
+        <v>17648.07</v>
       </c>
       <c r="IG8">
-        <v>29709.71</v>
+        <v>21256.27</v>
       </c>
       <c r="IH8">
-        <v>17648.07</v>
-      </c>
-      <c r="II8">
-        <v>21256.27</v>
-      </c>
-      <c r="IJ8">
         <v>18784</v>
       </c>
     </row>
-    <row r="9" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -7484,10 +7427,10 @@
         <v>60.0807</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G9">
         <v>0.87443950000000004</v>
@@ -7496,13 +7439,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -7520,10 +7463,10 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="V9">
         <v>25125.02</v>
@@ -8177,25 +8120,19 @@
         <v>25448.959999999999</v>
       </c>
       <c r="IE9">
-        <v>21405.919999999998</v>
+        <v>19950.73</v>
       </c>
       <c r="IF9">
-        <v>29089.27</v>
+        <v>18331.03</v>
       </c>
       <c r="IG9">
-        <v>19950.73</v>
+        <v>14518.91</v>
       </c>
       <c r="IH9">
-        <v>18331.03</v>
-      </c>
-      <c r="II9">
-        <v>14518.91</v>
-      </c>
-      <c r="IJ9">
         <v>17281.39</v>
       </c>
     </row>
-    <row r="10" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8206,10 +8143,10 @@
         <v>60.083199999999998</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G10">
         <v>0.64125560000000004</v>
@@ -8218,13 +8155,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -8242,10 +8179,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V10">
         <v>84956.52</v>
@@ -8899,25 +8836,19 @@
         <v>78122.45</v>
       </c>
       <c r="IE10">
-        <v>68817.850000000006</v>
+        <v>72083.679999999993</v>
       </c>
       <c r="IF10">
-        <v>57658.71</v>
+        <v>29419.119999999999</v>
       </c>
       <c r="IG10">
-        <v>72083.679999999993</v>
+        <v>29084.7</v>
       </c>
       <c r="IH10">
-        <v>29419.119999999999</v>
-      </c>
-      <c r="II10">
-        <v>29084.7</v>
-      </c>
-      <c r="IJ10">
         <v>27416.06</v>
       </c>
     </row>
-    <row r="11" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8928,13 +8859,13 @@
         <v>61.006999999999998</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G11">
         <v>0.93273539999999999</v>
@@ -8943,16 +8874,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -8970,10 +8901,10 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="V11">
         <v>295363.3</v>
@@ -9627,25 +9558,19 @@
         <v>133079.29999999999</v>
       </c>
       <c r="IE11">
-        <v>76382.36</v>
+        <v>67718.77</v>
       </c>
       <c r="IF11">
-        <v>81672.02</v>
+        <v>94675.8</v>
       </c>
       <c r="IG11">
-        <v>67718.77</v>
+        <v>92464.41</v>
       </c>
       <c r="IH11">
-        <v>94675.8</v>
-      </c>
-      <c r="II11">
-        <v>92464.41</v>
-      </c>
-      <c r="IJ11">
         <v>82302.759999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -9656,10 +9581,10 @@
         <v>69.069800000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G12">
         <v>0.88340810000000003</v>
@@ -9668,13 +9593,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -9692,10 +9617,10 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="V12">
         <v>329434.7</v>
@@ -10349,25 +10274,19 @@
         <v>614848.1</v>
       </c>
       <c r="IE12">
-        <v>599698.6</v>
+        <v>595286.80000000005</v>
       </c>
       <c r="IF12">
-        <v>711211.8</v>
+        <v>528393.69999999995</v>
       </c>
       <c r="IG12">
-        <v>595286.80000000005</v>
+        <v>360180.8</v>
       </c>
       <c r="IH12">
-        <v>528393.69999999995</v>
-      </c>
-      <c r="II12">
-        <v>360180.8</v>
-      </c>
-      <c r="IJ12">
         <v>694791.4</v>
       </c>
     </row>
-    <row r="13" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -10378,10 +10297,10 @@
         <v>69.069900000000004</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G13">
         <v>0.98654710000000001</v>
@@ -10390,13 +10309,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -10414,10 +10333,10 @@
         <v>-1</v>
       </c>
       <c r="S13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="V13">
         <v>2367.3009999999999</v>
@@ -11071,25 +10990,19 @@
         <v>2714.1149999999998</v>
       </c>
       <c r="IE13">
-        <v>2764.7910000000002</v>
+        <v>56194.02</v>
       </c>
       <c r="IF13">
-        <v>1962.1479999999999</v>
+        <v>55861.45</v>
       </c>
       <c r="IG13">
-        <v>56194.02</v>
+        <v>59680.39</v>
       </c>
       <c r="IH13">
-        <v>55861.45</v>
-      </c>
-      <c r="II13">
-        <v>59680.39</v>
-      </c>
-      <c r="IJ13">
         <v>63391.92</v>
       </c>
     </row>
-    <row r="14" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -11100,13 +11013,13 @@
         <v>70.065100000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G14">
         <v>0.33183859999999998</v>
@@ -11115,16 +11028,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -11142,10 +11055,10 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="V14">
         <v>13690.89</v>
@@ -11799,25 +11712,19 @@
         <v>25445.74</v>
       </c>
       <c r="IE14">
-        <v>23335.16</v>
+        <v>21782.37</v>
       </c>
       <c r="IF14">
-        <v>24327.56</v>
+        <v>14680.52</v>
       </c>
       <c r="IG14">
-        <v>21782.37</v>
+        <v>23218.55</v>
       </c>
       <c r="IH14">
-        <v>14680.52</v>
-      </c>
-      <c r="II14">
-        <v>23218.55</v>
-      </c>
-      <c r="IJ14">
         <v>13055.48</v>
       </c>
     </row>
-    <row r="15" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -11828,10 +11735,10 @@
         <v>72.938199999999995</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G15">
         <v>0.85650219999999999</v>
@@ -11840,16 +11747,16 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -11867,13 +11774,13 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="U15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V15">
         <v>112059.7</v>
@@ -12527,25 +12434,19 @@
         <v>83754.11</v>
       </c>
       <c r="IE15">
-        <v>89760.02</v>
+        <v>83474.570000000007</v>
       </c>
       <c r="IF15">
-        <v>90591.47</v>
+        <v>40802.15</v>
       </c>
       <c r="IG15">
-        <v>83474.570000000007</v>
+        <v>34035.42</v>
       </c>
       <c r="IH15">
-        <v>40802.15</v>
-      </c>
-      <c r="II15">
-        <v>34035.42</v>
-      </c>
-      <c r="IJ15">
         <v>33695.06</v>
       </c>
     </row>
-    <row r="16" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -12556,10 +12457,10 @@
         <v>72.941500000000005</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G16">
         <v>0.96412560000000003</v>
@@ -12568,16 +12469,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -12595,10 +12496,10 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="V16">
         <v>2663778</v>
@@ -13252,25 +13153,19 @@
         <v>410870.9</v>
       </c>
       <c r="IE16">
-        <v>951474.1</v>
+        <v>756499.2</v>
       </c>
       <c r="IF16">
-        <v>481881.2</v>
+        <v>833146.8</v>
       </c>
       <c r="IG16">
-        <v>756499.2</v>
+        <v>1108328</v>
       </c>
       <c r="IH16">
-        <v>833146.8</v>
-      </c>
-      <c r="II16">
-        <v>1108328</v>
-      </c>
-      <c r="IJ16">
         <v>933013.9</v>
       </c>
     </row>
-    <row r="17" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -13281,10 +13176,10 @@
         <v>75.006500000000003</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G17">
         <v>0.86547079999999998</v>
@@ -13293,13 +13188,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -13317,10 +13212,10 @@
         <v>-1</v>
       </c>
       <c r="S17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="V17">
         <v>111344.8</v>
@@ -13974,25 +13869,19 @@
         <v>81864.12</v>
       </c>
       <c r="IE17">
-        <v>38084.870000000003</v>
+        <v>24686.25</v>
       </c>
       <c r="IF17">
-        <v>30444.29</v>
+        <v>29007.08</v>
       </c>
       <c r="IG17">
-        <v>24686.25</v>
+        <v>37968.080000000002</v>
       </c>
       <c r="IH17">
-        <v>29007.08</v>
-      </c>
-      <c r="II17">
-        <v>37968.080000000002</v>
-      </c>
-      <c r="IJ17">
         <v>37726.25</v>
       </c>
     </row>
-    <row r="18" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -14003,10 +13892,10 @@
         <v>77.022099999999995</v>
       </c>
       <c r="D18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G18">
         <v>0.78923770000000004</v>
@@ -14015,13 +13904,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -14039,10 +13928,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="V18">
         <v>37385.26</v>
@@ -14696,25 +14585,19 @@
         <v>49358.38</v>
       </c>
       <c r="IE18">
-        <v>45692.98</v>
+        <v>42566.21</v>
       </c>
       <c r="IF18">
-        <v>44812.6</v>
+        <v>25919.360000000001</v>
       </c>
       <c r="IG18">
-        <v>42566.21</v>
+        <v>28276.65</v>
       </c>
       <c r="IH18">
-        <v>25919.360000000001</v>
-      </c>
-      <c r="II18">
-        <v>28276.65</v>
-      </c>
-      <c r="IJ18">
         <v>24774.16</v>
       </c>
     </row>
-    <row r="19" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -14725,13 +14608,13 @@
         <v>77.038300000000007</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G19">
         <v>0.71300450000000004</v>
@@ -14740,13 +14623,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -14764,10 +14647,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="V19">
         <v>29090.080000000002</v>
@@ -15421,25 +15304,19 @@
         <v>50726.84</v>
       </c>
       <c r="IE19">
-        <v>50811.35</v>
+        <v>44506.13</v>
       </c>
       <c r="IF19">
-        <v>52555.76</v>
+        <v>36306.839999999997</v>
       </c>
       <c r="IG19">
-        <v>44506.13</v>
+        <v>26606.240000000002</v>
       </c>
       <c r="IH19">
-        <v>36306.839999999997</v>
-      </c>
-      <c r="II19">
-        <v>26606.240000000002</v>
-      </c>
-      <c r="IJ19">
         <v>22405.66</v>
       </c>
     </row>
-    <row r="20" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -15450,10 +15327,10 @@
         <v>81.520799999999994</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G20">
         <v>0.95964130000000003</v>
@@ -15462,16 +15339,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -15489,10 +15366,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="V20">
         <v>1895.6969999999999</v>
@@ -16146,25 +16023,19 @@
         <v>4737.7719999999999</v>
       </c>
       <c r="IE20">
-        <v>3679.9450000000002</v>
+        <v>9740.3250000000007</v>
       </c>
       <c r="IF20">
-        <v>3596.0990000000002</v>
+        <v>4776.5370000000003</v>
       </c>
       <c r="IG20">
-        <v>9740.3250000000007</v>
+        <v>7362.598</v>
       </c>
       <c r="IH20">
-        <v>4776.5370000000003</v>
-      </c>
-      <c r="II20">
-        <v>7362.598</v>
-      </c>
-      <c r="IJ20">
         <v>7103.9830000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -16175,10 +16046,10 @@
         <v>84.959599999999995</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G21">
         <v>0.9955157</v>
@@ -16187,16 +16058,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -16214,10 +16085,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="V21">
         <v>17501.89</v>
@@ -16871,25 +16742,19 @@
         <v>21007.279999999999</v>
       </c>
       <c r="IE21">
-        <v>22776.46</v>
+        <v>24259.96</v>
       </c>
       <c r="IF21">
-        <v>22367.45</v>
+        <v>15285.12</v>
       </c>
       <c r="IG21">
-        <v>24259.96</v>
+        <v>17301.7</v>
       </c>
       <c r="IH21">
-        <v>15285.12</v>
-      </c>
-      <c r="II21">
-        <v>17301.7</v>
-      </c>
-      <c r="IJ21">
         <v>16822.68</v>
       </c>
     </row>
-    <row r="22" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -16900,10 +16765,10 @@
         <v>84.96</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G22">
         <v>0.33183859999999998</v>
@@ -16912,16 +16777,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -16939,10 +16804,10 @@
         <v>-1</v>
       </c>
       <c r="S22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T22" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V22">
         <v>5102.5060000000003</v>
@@ -17596,25 +17461,19 @@
         <v>2885.4250000000002</v>
       </c>
       <c r="IE22">
-        <v>1851.415</v>
+        <v>3886.047</v>
       </c>
       <c r="IF22">
-        <v>2955.116</v>
+        <v>2556.29</v>
       </c>
       <c r="IG22">
-        <v>3886.047</v>
+        <v>2100.6179999999999</v>
       </c>
       <c r="IH22">
-        <v>2556.29</v>
-      </c>
-      <c r="II22">
-        <v>2100.6179999999999</v>
-      </c>
-      <c r="IJ22">
         <v>1205.846</v>
       </c>
     </row>
-    <row r="23" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -17625,10 +17484,10 @@
         <v>84.960400000000007</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G23">
         <v>0.94170399999999999</v>
@@ -17637,16 +17496,16 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -17664,13 +17523,13 @@
         <v>-1</v>
       </c>
       <c r="S23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="U23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="V23">
         <v>19290.09</v>
@@ -18324,25 +18183,19 @@
         <v>17838.080000000002</v>
       </c>
       <c r="IE23">
-        <v>31716.84</v>
+        <v>18928.22</v>
       </c>
       <c r="IF23">
-        <v>28436.2</v>
+        <v>10731.95</v>
       </c>
       <c r="IG23">
-        <v>18928.22</v>
+        <v>11525.63</v>
       </c>
       <c r="IH23">
-        <v>10731.95</v>
-      </c>
-      <c r="II23">
-        <v>11525.63</v>
-      </c>
-      <c r="IJ23">
         <v>12611.62</v>
       </c>
     </row>
-    <row r="24" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -18353,10 +18206,10 @@
         <v>84.960800000000006</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G24">
         <v>0.55156950000000005</v>
@@ -18365,16 +18218,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -18392,10 +18245,10 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="V24">
         <v>145181.6</v>
@@ -19049,25 +18902,19 @@
         <v>57212.28</v>
       </c>
       <c r="IE24">
-        <v>49096.73</v>
+        <v>62282.48</v>
       </c>
       <c r="IF24">
-        <v>57556.61</v>
+        <v>36005.54</v>
       </c>
       <c r="IG24">
-        <v>62282.48</v>
+        <v>34652.160000000003</v>
       </c>
       <c r="IH24">
-        <v>36005.54</v>
-      </c>
-      <c r="II24">
-        <v>34652.160000000003</v>
-      </c>
-      <c r="IJ24">
         <v>37491.339999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -19078,10 +18925,10 @@
         <v>86.096500000000006</v>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G25">
         <v>0.99103140000000001</v>
@@ -19090,13 +18937,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -19114,10 +18961,10 @@
         <v>-1</v>
       </c>
       <c r="S25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T25" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="V25">
         <v>30997.360000000001</v>
@@ -19771,44 +19618,38 @@
         <v>13418.53</v>
       </c>
       <c r="IE25">
-        <v>13809.05</v>
+        <v>10570.87</v>
       </c>
       <c r="IF25">
-        <v>13206.13</v>
+        <v>9069.1959999999999</v>
       </c>
       <c r="IG25">
-        <v>10570.87</v>
+        <v>7534.1490000000003</v>
       </c>
       <c r="IH25">
-        <v>9069.1959999999999</v>
-      </c>
-      <c r="II25">
-        <v>7534.1490000000003</v>
-      </c>
-      <c r="IJ25">
         <v>11570.7</v>
       </c>
     </row>
-    <row r="27" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:242" x14ac:dyDescent="0.3">
       <c r="BE27" s="1"/>
       <c r="GE27" s="1"/>
       <c r="HZ27" s="1"/>
     </row>
-    <row r="134" spans="187:187" x14ac:dyDescent="0.25">
+    <row r="134" spans="187:187" x14ac:dyDescent="0.3">
       <c r="GE134" s="1"/>
     </row>
-    <row r="218" spans="57:234" x14ac:dyDescent="0.25">
+    <row r="218" spans="57:234" x14ac:dyDescent="0.3">
       <c r="BE218" s="1"/>
       <c r="GE218" s="1"/>
       <c r="HZ218" s="1"/>
     </row>
-    <row r="467" spans="33:226" x14ac:dyDescent="0.25">
+    <row r="467" spans="33:226" x14ac:dyDescent="0.3">
       <c r="AG467" s="1"/>
       <c r="CJ467" s="1"/>
       <c r="DW467" s="1"/>
       <c r="HR467" s="1"/>
     </row>
-    <row r="699" spans="32:236" x14ac:dyDescent="0.25">
+    <row r="699" spans="32:236" x14ac:dyDescent="0.3">
       <c r="AF699" s="1"/>
       <c r="AX699" s="1"/>
       <c r="CG699" s="1"/>
@@ -19833,14 +19674,14 @@
       <c r="HY699" s="1"/>
       <c r="IB699" s="1"/>
     </row>
-    <row r="930" spans="116:116" x14ac:dyDescent="0.25">
+    <row r="930" spans="116:116" x14ac:dyDescent="0.3">
       <c r="DL930" s="1"/>
     </row>
-    <row r="1287" spans="27:29" x14ac:dyDescent="0.25">
+    <row r="1287" spans="27:29" x14ac:dyDescent="0.3">
       <c r="AA1287" s="1"/>
       <c r="AC1287" s="1"/>
     </row>
-    <row r="1339" spans="50:233" x14ac:dyDescent="0.25">
+    <row r="1339" spans="50:233" x14ac:dyDescent="0.3">
       <c r="AX1339" s="1"/>
       <c r="CX1339" s="1"/>
       <c r="CZ1339" s="1"/>
@@ -19857,20 +19698,20 @@
       <c r="HK1339" s="1"/>
       <c r="HY1339" s="1"/>
     </row>
-    <row r="1367" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="1367" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA1367" s="1"/>
     </row>
-    <row r="1422" spans="33:149" x14ac:dyDescent="0.25">
+    <row r="1422" spans="33:149" x14ac:dyDescent="0.3">
       <c r="AG1422" s="1"/>
       <c r="ES1422" s="1"/>
     </row>
-    <row r="1423" spans="33:149" x14ac:dyDescent="0.25">
+    <row r="1423" spans="33:149" x14ac:dyDescent="0.3">
       <c r="ES1423" s="1"/>
     </row>
-    <row r="1424" spans="33:149" x14ac:dyDescent="0.25">
+    <row r="1424" spans="33:149" x14ac:dyDescent="0.3">
       <c r="ES1424" s="1"/>
     </row>
-    <row r="1537" spans="50:233" x14ac:dyDescent="0.25">
+    <row r="1537" spans="50:233" x14ac:dyDescent="0.3">
       <c r="AX1537" s="1"/>
       <c r="CX1537" s="1"/>
       <c r="CZ1537" s="1"/>
@@ -19878,10 +19719,10 @@
       <c r="DK1537" s="1"/>
       <c r="HY1537" s="1"/>
     </row>
-    <row r="1955" spans="149:149" x14ac:dyDescent="0.25">
+    <row r="1955" spans="149:149" x14ac:dyDescent="0.3">
       <c r="ES1955" s="1"/>
     </row>
-    <row r="2305" spans="84:222" x14ac:dyDescent="0.25">
+    <row r="2305" spans="84:222" x14ac:dyDescent="0.3">
       <c r="CF2305" s="1"/>
       <c r="CS2305" s="1"/>
       <c r="ES2305" s="1"/>
@@ -19893,21 +19734,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010038235D0575450E4D9009B3EC36509618" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="d43fa768a87849c7a999e5e5e465285d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7746a6f8-0bb5-496b-bf25-a73b1813b983" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6e9d1849f57ad8b3a2dd183d329834d" ns2:_="">
     <xsd:import namespace="7746a6f8-0bb5-496b-bf25-a73b1813b983"/>
@@ -20053,24 +19879,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2766E5-537E-4CDD-80A1-D9D699435E7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC2E0FB-11A9-46F6-9A73-695406942A77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FA3643-BB75-4B85-A89B-52F1FBAFA2D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20086,4 +19910,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC2E0FB-11A9-46F6-9A73-695406942A77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2766E5-537E-4CDD-80A1-D9D699435E7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/RP_pos_sample.xlsx
+++ b/inst/extdata/RP_pos_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\amp\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\notame\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26E3FB6-56AA-44B0-8BAB-F9698EF1996D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E15D87-9C26-42B8-9463-CD7D5EDB8E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="4272" windowWidth="20244" windowHeight="15984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="2064" windowWidth="34884" windowHeight="20652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RP pos final" sheetId="1" r:id="rId1"/>
@@ -112,669 +112,6 @@
     <t>MS/MS spectrum</t>
   </si>
   <si>
-    <t>180226SR_Valio_RP_pos_005</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_006</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_007</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_008</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_009</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_010</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_011</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_012</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_013</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_014</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_015</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_016</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_017</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_018</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_019</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_020</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_021</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_022</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_023</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_024</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_025</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_026</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_027</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_028</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_029</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_030</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_031</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_032</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_033</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_034</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_035</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_036</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_037</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_038</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_039</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_040</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_041</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_042</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_043</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_044</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_045</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_046</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_047</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_048</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_049</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_050</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_051</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_052</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_053</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_054</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_055</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_056</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_057</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_058</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_059</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_060</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_061</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_062</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_063</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_064</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_065</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_066</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_067</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_068</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_069</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_070</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_071</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_072</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_073</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_074</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_075</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_076</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_077</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_078</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_079</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_080</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_081</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_082</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_083</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_084</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_085</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_086</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_087</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_088</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_089</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_090</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_091</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_092</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_093</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_094</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_095</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_096</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_097</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_098</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_099</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_100</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_101</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_102</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_103</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_104</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_105</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_106</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_107</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_108</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_109</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_110</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_111</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_112</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_113</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_114</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_115</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_116</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_117</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_118</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_119</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_120</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_121</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_122</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_123</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_124</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_125</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_126</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_127</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_128</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_129</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_130</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_131</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_132</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_133</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_134</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_135</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_136</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_137</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_138</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_139</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_140</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_141</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_142</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_143</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_144</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_145</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_146</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_147</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_148</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_149</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_150</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_151</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_152</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_153</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_154</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_155</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_156</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_157</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_158</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_159</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_160</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_161</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_162</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_163</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_164</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_165</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_166</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_167</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_168</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_169</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_170</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_171</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_172</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_173</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_174</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_175</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_176</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_177</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_178</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_179</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_180</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_181</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_182</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_183</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_184</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_185</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_186</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_187</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_188</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_189</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_190</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_191</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_192</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_193</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_194</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_195</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_196</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_197</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_198</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_199</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_200</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_201</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_202</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_203</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_204</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_205</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_206</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_207</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_208</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_209</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_210</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_211</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_212</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_213</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_214</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_215</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_216</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_217</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_218</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_219</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_220</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_221</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_224</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_225</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_226</t>
-  </si>
-  <si>
-    <t>180226SR_Valio_RP_pos_227</t>
-  </si>
-  <si>
     <t>w/o MS2:Methyl alcohol</t>
   </si>
   <si>
@@ -956,6 +293,669 @@
   </si>
   <si>
     <t>86.09724:335156 87.10059:18742 88.10395:976</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_005</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_006</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_007</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_008</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_009</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_010</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_011</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_012</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_013</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_014</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_015</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_016</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_017</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_018</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_019</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_020</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_021</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_022</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_023</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_024</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_025</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_026</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_027</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_028</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_029</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_030</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_031</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_032</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_033</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_034</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_035</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_036</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_037</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_038</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_039</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_040</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_041</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_042</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_043</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_044</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_045</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_046</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_047</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_048</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_049</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_050</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_051</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_052</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_053</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_054</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_055</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_056</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_057</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_058</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_059</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_060</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_061</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_062</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_063</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_064</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_065</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_066</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_067</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_068</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_069</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_070</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_071</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_072</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_073</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_074</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_075</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_076</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_077</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_078</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_079</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_080</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_081</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_082</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_083</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_084</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_085</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_086</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_087</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_088</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_089</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_090</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_091</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_092</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_093</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_094</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_095</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_096</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_097</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_098</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_099</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_100</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_101</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_102</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_103</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_104</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_105</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_106</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_107</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_108</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_109</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_110</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_111</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_112</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_113</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_114</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_115</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_116</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_117</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_118</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_119</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_120</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_121</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_122</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_123</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_124</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_125</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_126</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_127</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_128</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_129</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_130</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_131</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_132</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_133</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_134</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_135</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_136</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_137</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_138</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_139</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_140</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_141</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_142</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_143</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_144</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_145</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_146</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_147</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_148</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_149</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_150</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_151</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_152</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_153</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_154</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_155</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_156</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_157</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_158</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_159</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_160</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_161</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_162</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_163</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_164</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_165</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_166</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_167</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_168</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_169</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_170</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_171</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_172</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_173</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_174</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_175</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_176</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_177</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_178</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_179</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_180</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_181</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_182</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_183</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_184</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_185</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_186</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_187</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_188</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_189</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_190</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_191</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_192</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_193</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_194</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_195</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_196</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_197</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_198</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_199</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_200</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_201</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_202</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_203</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_204</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_205</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_206</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_207</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_208</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_209</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_210</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_211</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_212</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_213</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_214</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_215</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_216</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_217</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_218</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_219</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_220</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_221</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_224</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_225</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_226</t>
+  </si>
+  <si>
+    <t>Example_project_RP_pos_227</t>
   </si>
 </sst>
 </file>
@@ -1799,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IH2305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HQ1" workbookViewId="0">
-      <selection activeCell="IE1" sqref="IE1:IF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3874,667 +3874,667 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="Y4" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="Z4" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AA4" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AB4" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AD4" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AE4" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AH4" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="AI4" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AJ4" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AL4" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="AM4" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="AN4" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="AO4" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AP4" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AQ4" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AR4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AS4" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="AT4" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="AU4" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AV4" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="AW4" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="AX4" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="AY4" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="AZ4" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="BA4" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="BB4" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="BC4" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="BD4" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="BE4" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="BF4" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="BG4" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="BH4" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="BI4" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="BJ4" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="BK4" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="BL4" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="BM4" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="BN4" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="BO4" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="BP4" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="BQ4" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="BR4" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="BS4" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="BT4" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="BU4" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="BV4" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="BW4" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="BX4" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="BY4" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="BZ4" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="CA4" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="CB4" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="CC4" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="CD4" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="CE4" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="CF4" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="CG4" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="CH4" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="CI4" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="CJ4" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="CK4" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="CL4" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="CM4" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="CN4" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="CO4" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="CP4" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="CQ4" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="CR4" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="CS4" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="CT4" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="CU4" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="CV4" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="CW4" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="CX4" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="CY4" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="CZ4" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="DA4" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="DB4" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="DC4" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="DD4" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="DE4" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="DF4" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="DG4" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="DH4" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="DI4" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="DJ4" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="DK4" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="DL4" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="DM4" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="DN4" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="DO4" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="DP4" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="DQ4" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="DR4" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="DS4" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="DT4" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="DU4" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="DV4" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="DW4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="DX4" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="DY4" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="DZ4" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="EA4" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="EB4" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="EC4" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="ED4" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="EE4" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="EF4" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="EG4" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="EH4" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="EI4" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="EJ4" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="EK4" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="EL4" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="EM4" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="EN4" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="EO4" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="EP4" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="EQ4" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="ER4" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="ES4" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="ET4" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="EU4" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="EV4" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="EW4" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="EX4" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="EY4" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="EZ4" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="FA4" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="FB4" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="FC4" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="FD4" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="FE4" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="FF4" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="FG4" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="FH4" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="FI4" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="FJ4" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="FK4" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="FL4" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="FM4" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="FN4" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="FO4" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="FP4" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="FQ4" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="FR4" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="FS4" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="FT4" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="FU4" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="FV4" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="FW4" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="FX4" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="FY4" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="FZ4" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="GA4" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="GB4" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="GC4" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="GD4" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="GE4" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="GF4" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="GG4" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="GH4" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="GI4" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="GJ4" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="GK4" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="GL4" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="GM4" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="GN4" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="GO4" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="GP4" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="GQ4" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="GR4" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="GS4" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="GT4" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="GU4" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="GV4" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="GW4" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="GX4" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="GY4" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="GZ4" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="HA4" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="HB4" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="HC4" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="HD4" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="HE4" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="HF4" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="HG4" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="HH4" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="HI4" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="HJ4" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="HK4" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="HL4" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="HM4" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="HN4" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="HO4" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="HP4" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="HQ4" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="HR4" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="HS4" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="HT4" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="HU4" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="HV4" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="HW4" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="HX4" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="HY4" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="HZ4" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="IA4" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="IB4" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="IC4" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="ID4" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="IE4" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="IF4" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="IG4" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="IH4" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:242" x14ac:dyDescent="0.3">
@@ -4548,13 +4548,13 @@
         <v>55.017400000000002</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>0.3811659</v>
@@ -4563,13 +4563,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -4587,10 +4587,10 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="T5" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="V5">
         <v>21838.49</v>
@@ -5267,10 +5267,10 @@
         <v>56.946100000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>0.96412560000000003</v>
@@ -5279,16 +5279,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -5306,10 +5306,10 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="T6" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="V6">
         <v>79784.62</v>
@@ -5986,10 +5986,10 @@
         <v>57.07</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>0.98654710000000001</v>
@@ -5998,16 +5998,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -6025,10 +6025,10 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="T7" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="V7">
         <v>57877.45</v>
@@ -6705,13 +6705,13 @@
         <v>60.0807</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>0.66367719999999997</v>
@@ -6720,16 +6720,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -6747,10 +6747,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="T8" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="V8">
         <v>25329.52</v>
@@ -7427,10 +7427,10 @@
         <v>60.0807</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>0.87443950000000004</v>
@@ -7439,13 +7439,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -7463,10 +7463,10 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="T9" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="V9">
         <v>25125.02</v>
@@ -8143,10 +8143,10 @@
         <v>60.083199999999998</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>0.64125560000000004</v>
@@ -8155,13 +8155,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -8179,10 +8179,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="T10" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="V10">
         <v>84956.52</v>
@@ -8859,13 +8859,13 @@
         <v>61.006999999999998</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>271</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>0.93273539999999999</v>
@@ -8874,16 +8874,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -8901,10 +8901,10 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="T11" t="s">
-        <v>272</v>
+        <v>51</v>
       </c>
       <c r="V11">
         <v>295363.3</v>
@@ -9581,10 +9581,10 @@
         <v>69.069800000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>0.88340810000000003</v>
@@ -9593,13 +9593,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>275</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -9617,10 +9617,10 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="T12" t="s">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="V12">
         <v>329434.7</v>
@@ -10297,10 +10297,10 @@
         <v>69.069900000000004</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>0.98654710000000001</v>
@@ -10309,13 +10309,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>275</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -10333,10 +10333,10 @@
         <v>-1</v>
       </c>
       <c r="S13" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="T13" t="s">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="V13">
         <v>2367.3009999999999</v>
@@ -11013,13 +11013,13 @@
         <v>70.065100000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>0.33183859999999998</v>
@@ -11028,16 +11028,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -11055,10 +11055,10 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="T14" t="s">
-        <v>280</v>
+        <v>59</v>
       </c>
       <c r="V14">
         <v>13690.89</v>
@@ -11735,10 +11735,10 @@
         <v>72.938199999999995</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>0.85650219999999999</v>
@@ -11747,16 +11747,16 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -11774,13 +11774,13 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="T15" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="V15">
         <v>112059.7</v>
@@ -12457,10 +12457,10 @@
         <v>72.941500000000005</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>0.96412560000000003</v>
@@ -12469,16 +12469,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -12496,10 +12496,10 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="T16" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="V16">
         <v>2663778</v>
@@ -13176,10 +13176,10 @@
         <v>75.006500000000003</v>
       </c>
       <c r="D17" t="s">
-        <v>284</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>0.86547079999999998</v>
@@ -13188,13 +13188,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>285</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s">
-        <v>287</v>
+        <v>66</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -13212,10 +13212,10 @@
         <v>-1</v>
       </c>
       <c r="S17" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="T17" t="s">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="V17">
         <v>111344.8</v>
@@ -13892,10 +13892,10 @@
         <v>77.022099999999995</v>
       </c>
       <c r="D18" t="s">
-        <v>289</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>0.78923770000000004</v>
@@ -13904,13 +13904,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="L18" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -13928,10 +13928,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="T18" t="s">
-        <v>293</v>
+        <v>72</v>
       </c>
       <c r="V18">
         <v>37385.26</v>
@@ -14608,13 +14608,13 @@
         <v>77.038300000000007</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="G19">
         <v>0.71300450000000004</v>
@@ -14623,13 +14623,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="L19" t="s">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -14647,10 +14647,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="T19" t="s">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="V19">
         <v>29090.080000000002</v>
@@ -15327,10 +15327,10 @@
         <v>81.520799999999994</v>
       </c>
       <c r="D20" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>0.95964130000000003</v>
@@ -15339,16 +15339,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -15366,10 +15366,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="T20" t="s">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="V20">
         <v>1895.6969999999999</v>
@@ -16046,10 +16046,10 @@
         <v>84.959599999999995</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>0.9955157</v>
@@ -16058,16 +16058,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -16085,10 +16085,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="T21" t="s">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="V21">
         <v>17501.89</v>
@@ -16765,10 +16765,10 @@
         <v>84.96</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>0.33183859999999998</v>
@@ -16777,16 +16777,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -16804,10 +16804,10 @@
         <v>-1</v>
       </c>
       <c r="S22" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="T22" t="s">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="V22">
         <v>5102.5060000000003</v>
@@ -17484,10 +17484,10 @@
         <v>84.960400000000007</v>
       </c>
       <c r="D23" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>0.94170399999999999</v>
@@ -17496,16 +17496,16 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -17523,13 +17523,13 @@
         <v>-1</v>
       </c>
       <c r="S23" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="T23" t="s">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="U23" t="s">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="V23">
         <v>19290.09</v>
@@ -18206,10 +18206,10 @@
         <v>84.960800000000006</v>
       </c>
       <c r="D24" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="G24">
         <v>0.55156950000000005</v>
@@ -18218,16 +18218,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L24" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -18245,10 +18245,10 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="T24" t="s">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="V24">
         <v>145181.6</v>
@@ -18925,10 +18925,10 @@
         <v>86.096500000000006</v>
       </c>
       <c r="D25" t="s">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>0.99103140000000001</v>
@@ -18937,13 +18937,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s">
-        <v>309</v>
+        <v>88</v>
       </c>
       <c r="L25" t="s">
-        <v>310</v>
+        <v>89</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -18961,10 +18961,10 @@
         <v>-1</v>
       </c>
       <c r="S25" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="T25" t="s">
-        <v>311</v>
+        <v>90</v>
       </c>
       <c r="V25">
         <v>30997.360000000001</v>
@@ -19734,6 +19734,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010038235D0575450E4D9009B3EC36509618" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="d43fa768a87849c7a999e5e5e465285d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7746a6f8-0bb5-496b-bf25-a73b1813b983" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6e9d1849f57ad8b3a2dd183d329834d" ns2:_="">
     <xsd:import namespace="7746a6f8-0bb5-496b-bf25-a73b1813b983"/>
@@ -19879,15 +19888,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -19895,6 +19895,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC2E0FB-11A9-46F6-9A73-695406942A77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FA3643-BB75-4B85-A89B-52F1FBAFA2D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19912,14 +19920,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC2E0FB-11A9-46F6-9A73-695406942A77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2766E5-537E-4CDD-80A1-D9D699435E7B}">
   <ds:schemaRefs>

--- a/inst/extdata/RP_pos_sample.xlsx
+++ b/inst/extdata/RP_pos_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\notame\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E15D87-9C26-42B8-9463-CD7D5EDB8E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB046F8-62F9-4729-8B6A-5A4EB951D8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="2064" windowWidth="34884" windowHeight="20652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="684" yWindow="5712" windowWidth="25620" windowHeight="18804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RP pos final" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>72.93893:4692 73.94228:192 74.94564:393</t>
   </si>
   <si>
-    <t>72.938 (100)</t>
-  </si>
-  <si>
     <t>72.94079:12822 73.94414:825 74.9475:464</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>84.96442:51247 85.96777:779 86.97113:1115</t>
   </si>
   <si>
-    <t>84.961 (100), 40.971 (45), 55.936 (37), 43.247 (10), 85.3 (3), 85.015 (1), 41.001 (1)</t>
-  </si>
-  <si>
     <t>[M+K]+</t>
   </si>
   <si>
@@ -956,6 +950,12 @@
   </si>
   <si>
     <t>Example_project_RP_pos_227</t>
+  </si>
+  <si>
+    <t>72.938:159</t>
+  </si>
+  <si>
+    <t>40.971:45 41.001:3 43.247:17 55.936:65 85.015:2 85.3:5 84.961:139</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1800,7 @@
   <dimension ref="A1:IH2305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3874,667 +3874,667 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" t="s">
         <v>91</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>92</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>93</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>94</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>95</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>96</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>97</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>98</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>99</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>100</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>101</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>102</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AJ4" t="s">
         <v>103</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>104</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>105</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>106</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>107</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>108</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>109</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
         <v>110</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
         <v>111</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AS4" t="s">
         <v>112</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AT4" t="s">
         <v>113</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AU4" t="s">
         <v>114</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AV4" t="s">
         <v>115</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AW4" t="s">
         <v>116</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AX4" t="s">
         <v>117</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AY4" t="s">
         <v>118</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AZ4" t="s">
         <v>119</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BA4" t="s">
         <v>120</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BB4" t="s">
         <v>121</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BC4" t="s">
         <v>122</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BD4" t="s">
         <v>123</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BE4" t="s">
         <v>124</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BF4" t="s">
         <v>125</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BG4" t="s">
         <v>126</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>127</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BI4" t="s">
         <v>128</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BJ4" t="s">
         <v>129</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BK4" t="s">
         <v>130</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BL4" t="s">
         <v>131</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BM4" t="s">
         <v>132</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BN4" t="s">
         <v>133</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BO4" t="s">
         <v>134</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BP4" t="s">
         <v>135</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BQ4" t="s">
         <v>136</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BR4" t="s">
         <v>137</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BS4" t="s">
         <v>138</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BT4" t="s">
         <v>139</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BU4" t="s">
         <v>140</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BV4" t="s">
         <v>141</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BW4" t="s">
         <v>142</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BX4" t="s">
         <v>143</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BY4" t="s">
         <v>144</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="BZ4" t="s">
         <v>145</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="CA4" t="s">
         <v>146</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="CB4" t="s">
         <v>147</v>
       </c>
-      <c r="CA4" t="s">
+      <c r="CC4" t="s">
         <v>148</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CD4" t="s">
         <v>149</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="CE4" t="s">
         <v>150</v>
       </c>
-      <c r="CD4" t="s">
+      <c r="CF4" t="s">
         <v>151</v>
       </c>
-      <c r="CE4" t="s">
+      <c r="CG4" t="s">
         <v>152</v>
       </c>
-      <c r="CF4" t="s">
+      <c r="CH4" t="s">
         <v>153</v>
       </c>
-      <c r="CG4" t="s">
+      <c r="CI4" t="s">
         <v>154</v>
       </c>
-      <c r="CH4" t="s">
+      <c r="CJ4" t="s">
         <v>155</v>
       </c>
-      <c r="CI4" t="s">
+      <c r="CK4" t="s">
         <v>156</v>
       </c>
-      <c r="CJ4" t="s">
+      <c r="CL4" t="s">
         <v>157</v>
       </c>
-      <c r="CK4" t="s">
+      <c r="CM4" t="s">
         <v>158</v>
       </c>
-      <c r="CL4" t="s">
+      <c r="CN4" t="s">
         <v>159</v>
       </c>
-      <c r="CM4" t="s">
+      <c r="CO4" t="s">
         <v>160</v>
       </c>
-      <c r="CN4" t="s">
+      <c r="CP4" t="s">
         <v>161</v>
       </c>
-      <c r="CO4" t="s">
+      <c r="CQ4" t="s">
         <v>162</v>
       </c>
-      <c r="CP4" t="s">
+      <c r="CR4" t="s">
         <v>163</v>
       </c>
-      <c r="CQ4" t="s">
+      <c r="CS4" t="s">
         <v>164</v>
       </c>
-      <c r="CR4" t="s">
+      <c r="CT4" t="s">
         <v>165</v>
       </c>
-      <c r="CS4" t="s">
+      <c r="CU4" t="s">
         <v>166</v>
       </c>
-      <c r="CT4" t="s">
+      <c r="CV4" t="s">
         <v>167</v>
       </c>
-      <c r="CU4" t="s">
+      <c r="CW4" t="s">
         <v>168</v>
       </c>
-      <c r="CV4" t="s">
+      <c r="CX4" t="s">
         <v>169</v>
       </c>
-      <c r="CW4" t="s">
+      <c r="CY4" t="s">
         <v>170</v>
       </c>
-      <c r="CX4" t="s">
+      <c r="CZ4" t="s">
         <v>171</v>
       </c>
-      <c r="CY4" t="s">
+      <c r="DA4" t="s">
         <v>172</v>
       </c>
-      <c r="CZ4" t="s">
+      <c r="DB4" t="s">
         <v>173</v>
       </c>
-      <c r="DA4" t="s">
+      <c r="DC4" t="s">
         <v>174</v>
       </c>
-      <c r="DB4" t="s">
+      <c r="DD4" t="s">
         <v>175</v>
       </c>
-      <c r="DC4" t="s">
+      <c r="DE4" t="s">
         <v>176</v>
       </c>
-      <c r="DD4" t="s">
+      <c r="DF4" t="s">
         <v>177</v>
       </c>
-      <c r="DE4" t="s">
+      <c r="DG4" t="s">
         <v>178</v>
       </c>
-      <c r="DF4" t="s">
+      <c r="DH4" t="s">
         <v>179</v>
       </c>
-      <c r="DG4" t="s">
+      <c r="DI4" t="s">
         <v>180</v>
       </c>
-      <c r="DH4" t="s">
+      <c r="DJ4" t="s">
         <v>181</v>
       </c>
-      <c r="DI4" t="s">
+      <c r="DK4" t="s">
         <v>182</v>
       </c>
-      <c r="DJ4" t="s">
+      <c r="DL4" t="s">
         <v>183</v>
       </c>
-      <c r="DK4" t="s">
+      <c r="DM4" t="s">
         <v>184</v>
       </c>
-      <c r="DL4" t="s">
+      <c r="DN4" t="s">
         <v>185</v>
       </c>
-      <c r="DM4" t="s">
+      <c r="DO4" t="s">
         <v>186</v>
       </c>
-      <c r="DN4" t="s">
+      <c r="DP4" t="s">
         <v>187</v>
       </c>
-      <c r="DO4" t="s">
+      <c r="DQ4" t="s">
         <v>188</v>
       </c>
-      <c r="DP4" t="s">
+      <c r="DR4" t="s">
         <v>189</v>
       </c>
-      <c r="DQ4" t="s">
+      <c r="DS4" t="s">
         <v>190</v>
       </c>
-      <c r="DR4" t="s">
+      <c r="DT4" t="s">
         <v>191</v>
       </c>
-      <c r="DS4" t="s">
+      <c r="DU4" t="s">
         <v>192</v>
       </c>
-      <c r="DT4" t="s">
+      <c r="DV4" t="s">
         <v>193</v>
       </c>
-      <c r="DU4" t="s">
+      <c r="DW4" t="s">
         <v>194</v>
       </c>
-      <c r="DV4" t="s">
+      <c r="DX4" t="s">
         <v>195</v>
       </c>
-      <c r="DW4" t="s">
+      <c r="DY4" t="s">
         <v>196</v>
       </c>
-      <c r="DX4" t="s">
+      <c r="DZ4" t="s">
         <v>197</v>
       </c>
-      <c r="DY4" t="s">
+      <c r="EA4" t="s">
         <v>198</v>
       </c>
-      <c r="DZ4" t="s">
+      <c r="EB4" t="s">
         <v>199</v>
       </c>
-      <c r="EA4" t="s">
+      <c r="EC4" t="s">
         <v>200</v>
       </c>
-      <c r="EB4" t="s">
+      <c r="ED4" t="s">
         <v>201</v>
       </c>
-      <c r="EC4" t="s">
+      <c r="EE4" t="s">
         <v>202</v>
       </c>
-      <c r="ED4" t="s">
+      <c r="EF4" t="s">
         <v>203</v>
       </c>
-      <c r="EE4" t="s">
+      <c r="EG4" t="s">
         <v>204</v>
       </c>
-      <c r="EF4" t="s">
+      <c r="EH4" t="s">
         <v>205</v>
       </c>
-      <c r="EG4" t="s">
+      <c r="EI4" t="s">
         <v>206</v>
       </c>
-      <c r="EH4" t="s">
+      <c r="EJ4" t="s">
         <v>207</v>
       </c>
-      <c r="EI4" t="s">
+      <c r="EK4" t="s">
         <v>208</v>
       </c>
-      <c r="EJ4" t="s">
+      <c r="EL4" t="s">
         <v>209</v>
       </c>
-      <c r="EK4" t="s">
+      <c r="EM4" t="s">
         <v>210</v>
       </c>
-      <c r="EL4" t="s">
+      <c r="EN4" t="s">
         <v>211</v>
       </c>
-      <c r="EM4" t="s">
+      <c r="EO4" t="s">
         <v>212</v>
       </c>
-      <c r="EN4" t="s">
+      <c r="EP4" t="s">
         <v>213</v>
       </c>
-      <c r="EO4" t="s">
+      <c r="EQ4" t="s">
         <v>214</v>
       </c>
-      <c r="EP4" t="s">
+      <c r="ER4" t="s">
         <v>215</v>
       </c>
-      <c r="EQ4" t="s">
+      <c r="ES4" t="s">
         <v>216</v>
       </c>
-      <c r="ER4" t="s">
+      <c r="ET4" t="s">
         <v>217</v>
       </c>
-      <c r="ES4" t="s">
+      <c r="EU4" t="s">
         <v>218</v>
       </c>
-      <c r="ET4" t="s">
+      <c r="EV4" t="s">
         <v>219</v>
       </c>
-      <c r="EU4" t="s">
+      <c r="EW4" t="s">
         <v>220</v>
       </c>
-      <c r="EV4" t="s">
+      <c r="EX4" t="s">
         <v>221</v>
       </c>
-      <c r="EW4" t="s">
+      <c r="EY4" t="s">
         <v>222</v>
       </c>
-      <c r="EX4" t="s">
+      <c r="EZ4" t="s">
         <v>223</v>
       </c>
-      <c r="EY4" t="s">
+      <c r="FA4" t="s">
         <v>224</v>
       </c>
-      <c r="EZ4" t="s">
+      <c r="FB4" t="s">
         <v>225</v>
       </c>
-      <c r="FA4" t="s">
+      <c r="FC4" t="s">
         <v>226</v>
       </c>
-      <c r="FB4" t="s">
+      <c r="FD4" t="s">
         <v>227</v>
       </c>
-      <c r="FC4" t="s">
+      <c r="FE4" t="s">
         <v>228</v>
       </c>
-      <c r="FD4" t="s">
+      <c r="FF4" t="s">
         <v>229</v>
       </c>
-      <c r="FE4" t="s">
+      <c r="FG4" t="s">
         <v>230</v>
       </c>
-      <c r="FF4" t="s">
+      <c r="FH4" t="s">
         <v>231</v>
       </c>
-      <c r="FG4" t="s">
+      <c r="FI4" t="s">
         <v>232</v>
       </c>
-      <c r="FH4" t="s">
+      <c r="FJ4" t="s">
         <v>233</v>
       </c>
-      <c r="FI4" t="s">
+      <c r="FK4" t="s">
         <v>234</v>
       </c>
-      <c r="FJ4" t="s">
+      <c r="FL4" t="s">
         <v>235</v>
       </c>
-      <c r="FK4" t="s">
+      <c r="FM4" t="s">
         <v>236</v>
       </c>
-      <c r="FL4" t="s">
+      <c r="FN4" t="s">
         <v>237</v>
       </c>
-      <c r="FM4" t="s">
+      <c r="FO4" t="s">
         <v>238</v>
       </c>
-      <c r="FN4" t="s">
+      <c r="FP4" t="s">
         <v>239</v>
       </c>
-      <c r="FO4" t="s">
+      <c r="FQ4" t="s">
         <v>240</v>
       </c>
-      <c r="FP4" t="s">
+      <c r="FR4" t="s">
         <v>241</v>
       </c>
-      <c r="FQ4" t="s">
+      <c r="FS4" t="s">
         <v>242</v>
       </c>
-      <c r="FR4" t="s">
+      <c r="FT4" t="s">
         <v>243</v>
       </c>
-      <c r="FS4" t="s">
+      <c r="FU4" t="s">
         <v>244</v>
       </c>
-      <c r="FT4" t="s">
+      <c r="FV4" t="s">
         <v>245</v>
       </c>
-      <c r="FU4" t="s">
+      <c r="FW4" t="s">
         <v>246</v>
       </c>
-      <c r="FV4" t="s">
+      <c r="FX4" t="s">
         <v>247</v>
       </c>
-      <c r="FW4" t="s">
+      <c r="FY4" t="s">
         <v>248</v>
       </c>
-      <c r="FX4" t="s">
+      <c r="FZ4" t="s">
         <v>249</v>
       </c>
-      <c r="FY4" t="s">
+      <c r="GA4" t="s">
         <v>250</v>
       </c>
-      <c r="FZ4" t="s">
+      <c r="GB4" t="s">
         <v>251</v>
       </c>
-      <c r="GA4" t="s">
+      <c r="GC4" t="s">
         <v>252</v>
       </c>
-      <c r="GB4" t="s">
+      <c r="GD4" t="s">
         <v>253</v>
       </c>
-      <c r="GC4" t="s">
+      <c r="GE4" t="s">
         <v>254</v>
       </c>
-      <c r="GD4" t="s">
+      <c r="GF4" t="s">
         <v>255</v>
       </c>
-      <c r="GE4" t="s">
+      <c r="GG4" t="s">
         <v>256</v>
       </c>
-      <c r="GF4" t="s">
+      <c r="GH4" t="s">
         <v>257</v>
       </c>
-      <c r="GG4" t="s">
+      <c r="GI4" t="s">
         <v>258</v>
       </c>
-      <c r="GH4" t="s">
+      <c r="GJ4" t="s">
         <v>259</v>
       </c>
-      <c r="GI4" t="s">
+      <c r="GK4" t="s">
         <v>260</v>
       </c>
-      <c r="GJ4" t="s">
+      <c r="GL4" t="s">
         <v>261</v>
       </c>
-      <c r="GK4" t="s">
+      <c r="GM4" t="s">
         <v>262</v>
       </c>
-      <c r="GL4" t="s">
+      <c r="GN4" t="s">
         <v>263</v>
       </c>
-      <c r="GM4" t="s">
+      <c r="GO4" t="s">
         <v>264</v>
       </c>
-      <c r="GN4" t="s">
+      <c r="GP4" t="s">
         <v>265</v>
       </c>
-      <c r="GO4" t="s">
+      <c r="GQ4" t="s">
         <v>266</v>
       </c>
-      <c r="GP4" t="s">
+      <c r="GR4" t="s">
         <v>267</v>
       </c>
-      <c r="GQ4" t="s">
+      <c r="GS4" t="s">
         <v>268</v>
       </c>
-      <c r="GR4" t="s">
+      <c r="GT4" t="s">
         <v>269</v>
       </c>
-      <c r="GS4" t="s">
+      <c r="GU4" t="s">
         <v>270</v>
       </c>
-      <c r="GT4" t="s">
+      <c r="GV4" t="s">
         <v>271</v>
       </c>
-      <c r="GU4" t="s">
+      <c r="GW4" t="s">
         <v>272</v>
       </c>
-      <c r="GV4" t="s">
+      <c r="GX4" t="s">
         <v>273</v>
       </c>
-      <c r="GW4" t="s">
+      <c r="GY4" t="s">
         <v>274</v>
       </c>
-      <c r="GX4" t="s">
+      <c r="GZ4" t="s">
         <v>275</v>
       </c>
-      <c r="GY4" t="s">
+      <c r="HA4" t="s">
         <v>276</v>
       </c>
-      <c r="GZ4" t="s">
+      <c r="HB4" t="s">
         <v>277</v>
       </c>
-      <c r="HA4" t="s">
+      <c r="HC4" t="s">
         <v>278</v>
       </c>
-      <c r="HB4" t="s">
+      <c r="HD4" t="s">
         <v>279</v>
       </c>
-      <c r="HC4" t="s">
+      <c r="HE4" t="s">
         <v>280</v>
       </c>
-      <c r="HD4" t="s">
+      <c r="HF4" t="s">
         <v>281</v>
       </c>
-      <c r="HE4" t="s">
+      <c r="HG4" t="s">
         <v>282</v>
       </c>
-      <c r="HF4" t="s">
+      <c r="HH4" t="s">
         <v>283</v>
       </c>
-      <c r="HG4" t="s">
+      <c r="HI4" t="s">
         <v>284</v>
       </c>
-      <c r="HH4" t="s">
+      <c r="HJ4" t="s">
         <v>285</v>
       </c>
-      <c r="HI4" t="s">
+      <c r="HK4" t="s">
         <v>286</v>
       </c>
-      <c r="HJ4" t="s">
+      <c r="HL4" t="s">
         <v>287</v>
       </c>
-      <c r="HK4" t="s">
+      <c r="HM4" t="s">
         <v>288</v>
       </c>
-      <c r="HL4" t="s">
+      <c r="HN4" t="s">
         <v>289</v>
       </c>
-      <c r="HM4" t="s">
+      <c r="HO4" t="s">
         <v>290</v>
       </c>
-      <c r="HN4" t="s">
+      <c r="HP4" t="s">
         <v>291</v>
       </c>
-      <c r="HO4" t="s">
+      <c r="HQ4" t="s">
         <v>292</v>
       </c>
-      <c r="HP4" t="s">
+      <c r="HR4" t="s">
         <v>293</v>
       </c>
-      <c r="HQ4" t="s">
+      <c r="HS4" t="s">
         <v>294</v>
       </c>
-      <c r="HR4" t="s">
+      <c r="HT4" t="s">
         <v>295</v>
       </c>
-      <c r="HS4" t="s">
+      <c r="HU4" t="s">
         <v>296</v>
       </c>
-      <c r="HT4" t="s">
+      <c r="HV4" t="s">
         <v>297</v>
       </c>
-      <c r="HU4" t="s">
+      <c r="HW4" t="s">
         <v>298</v>
       </c>
-      <c r="HV4" t="s">
+      <c r="HX4" t="s">
         <v>299</v>
       </c>
-      <c r="HW4" t="s">
+      <c r="HY4" t="s">
         <v>300</v>
       </c>
-      <c r="HX4" t="s">
+      <c r="HZ4" t="s">
         <v>301</v>
       </c>
-      <c r="HY4" t="s">
+      <c r="IA4" t="s">
         <v>302</v>
       </c>
-      <c r="HZ4" t="s">
+      <c r="IB4" t="s">
         <v>303</v>
       </c>
-      <c r="IA4" t="s">
+      <c r="IC4" t="s">
         <v>304</v>
       </c>
-      <c r="IB4" t="s">
+      <c r="ID4" t="s">
         <v>305</v>
       </c>
-      <c r="IC4" t="s">
+      <c r="IE4" t="s">
         <v>306</v>
       </c>
-      <c r="ID4" t="s">
+      <c r="IF4" t="s">
         <v>307</v>
       </c>
-      <c r="IE4" t="s">
+      <c r="IG4" t="s">
         <v>308</v>
       </c>
-      <c r="IF4" t="s">
+      <c r="IH4" t="s">
         <v>309</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>310</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:242" x14ac:dyDescent="0.3">
@@ -4587,7 +4587,7 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T5" t="s">
         <v>36</v>
@@ -5306,7 +5306,7 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T6" t="s">
         <v>39</v>
@@ -6025,7 +6025,7 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T7" t="s">
         <v>40</v>
@@ -6747,7 +6747,7 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T8" t="s">
         <v>42</v>
@@ -7463,7 +7463,7 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="T9" t="s">
         <v>47</v>
@@ -8179,7 +8179,7 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="T10" t="s">
         <v>48</v>
@@ -8901,7 +8901,7 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T11" t="s">
         <v>51</v>
@@ -9617,7 +9617,7 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T12" t="s">
         <v>56</v>
@@ -10333,7 +10333,7 @@
         <v>-1</v>
       </c>
       <c r="S13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T13" t="s">
         <v>57</v>
@@ -11055,7 +11055,7 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="T14" t="s">
         <v>59</v>
@@ -11774,13 +11774,13 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="T15" t="s">
         <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>61</v>
+        <v>310</v>
       </c>
       <c r="V15">
         <v>112059.7</v>
@@ -12496,10 +12496,10 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V16">
         <v>2663778</v>
@@ -13176,7 +13176,7 @@
         <v>75.006500000000003</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
         <v>31</v>
@@ -13188,13 +13188,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" t="s">
         <v>64</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>65</v>
-      </c>
-      <c r="L17" t="s">
-        <v>66</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -13212,10 +13212,10 @@
         <v>-1</v>
       </c>
       <c r="S17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V17">
         <v>111344.8</v>
@@ -13892,7 +13892,7 @@
         <v>77.022099999999995</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
@@ -13904,13 +13904,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
         <v>69</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>70</v>
-      </c>
-      <c r="L18" t="s">
-        <v>71</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -13928,10 +13928,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V18">
         <v>37385.26</v>
@@ -14608,13 +14608,13 @@
         <v>77.038300000000007</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19">
         <v>0.71300450000000004</v>
@@ -14623,13 +14623,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" t="s">
         <v>75</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>76</v>
-      </c>
-      <c r="L19" t="s">
-        <v>77</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -14647,10 +14647,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V19">
         <v>29090.080000000002</v>
@@ -15366,10 +15366,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V20">
         <v>1895.6969999999999</v>
@@ -16085,10 +16085,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V21">
         <v>17501.89</v>
@@ -16804,10 +16804,10 @@
         <v>-1</v>
       </c>
       <c r="S22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V22">
         <v>5102.5060000000003</v>
@@ -17523,13 +17523,13 @@
         <v>-1</v>
       </c>
       <c r="S23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="T23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="V23">
         <v>19290.09</v>
@@ -18209,7 +18209,7 @@
         <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G24">
         <v>0.55156950000000005</v>
@@ -18245,10 +18245,10 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V24">
         <v>145181.6</v>
@@ -18925,7 +18925,7 @@
         <v>86.096500000000006</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
         <v>31</v>
@@ -18937,13 +18937,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" t="s">
         <v>87</v>
-      </c>
-      <c r="K25" t="s">
-        <v>88</v>
-      </c>
-      <c r="L25" t="s">
-        <v>89</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -18961,10 +18961,10 @@
         <v>-1</v>
       </c>
       <c r="S25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V25">
         <v>30997.360000000001</v>
@@ -19734,12 +19734,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19889,15 +19886,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC2E0FB-11A9-46F6-9A73-695406942A77}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2766E5-537E-4CDD-80A1-D9D699435E7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19921,10 +19922,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2766E5-537E-4CDD-80A1-D9D699435E7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC2E0FB-11A9-46F6-9A73-695406942A77}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>